--- a/ReadExcel.xlsx
+++ b/ReadExcel.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Gaurav</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>RNTBC</t>
+  </si>
+  <si>
+    <t>ff</t>
   </si>
   <si>
     <t>Infy</t>
@@ -52,6 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,7 +370,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -411,6 +415,14 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
